--- a/archivos/archvo_1_LNGO.xlsx
+++ b/archivos/archvo_1_LNGO.xlsx
@@ -392,9 +392,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>pentime</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
     <t>closetime</t>
   </si>
   <si>
-    <t>closeprise</t>
-  </si>
-  <si>
     <t>commission</t>
   </si>
   <si>
@@ -429,6 +423,12 @@
   </si>
   <si>
     <t>profit</t>
+  </si>
+  <si>
+    <t>opentime</t>
+  </si>
+  <si>
+    <t>closeprice</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="208" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -767,43 +769,43 @@
         <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
